--- a/SDEMO/Default.xlsx
+++ b/SDEMO/Default.xlsx
@@ -523,7 +523,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
